--- a/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>AWCMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,8 +799,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +837,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,8 +929,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,8 +967,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-5000</v>
       </c>
       <c r="F18" s="3">
         <v>-5000</v>
       </c>
       <c r="G18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,43 +1112,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E20" s="3">
         <v>214000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>354000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>291400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>209100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>143700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-21900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>127700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-46200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1149,8 +1186,11 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1184,48 +1224,54 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>210900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>349000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>286400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>203200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>136600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-38000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>122100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-53200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1246,16 +1292,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>210900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>349000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>286400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>203200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>136600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-38000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>122000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>210900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>349000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>286400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>203200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>136600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-38000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-33700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>122000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-214000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-354000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-291400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-209100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-143700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>21900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-127700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>210900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>349000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>286400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>203200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>136600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-38000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>122000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>210900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>349000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>286400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>203200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>136600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-38000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>122000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,43 +1795,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E41" s="3">
         <v>33000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>183800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1779,8 +1869,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1793,29 +1886,32 @@
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1849,124 +1945,136 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3300</v>
       </c>
       <c r="L45" s="3">
         <v>3300</v>
       </c>
       <c r="M45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E46" s="3">
         <v>34900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>184900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1836800</v>
+      </c>
+      <c r="E47" s="3">
         <v>2018800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2060200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2148400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2301000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2257000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2106000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2176200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2098000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2370900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2514500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -1989,8 +2097,11 @@
       <c r="M48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2024,8 +2135,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,8 +2211,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2129,8 +2249,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1853800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2053700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2245100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2187600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2342900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2282000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2117800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2202100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2110700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2404300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2543200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,64 +2359,68 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1300</v>
       </c>
       <c r="G57" s="3">
         <v>1300</v>
       </c>
       <c r="H57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>87700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>88000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
         <v>15000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2296,116 +2430,128 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>20300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>108800</v>
+        <v>1200</v>
       </c>
       <c r="E60" s="3">
         <v>108800</v>
       </c>
       <c r="F60" s="3">
+        <v>108800</v>
+      </c>
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>92400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>98400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>97700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>92400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>102800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>110500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>95800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2416,31 +2562,34 @@
         <v>500</v>
       </c>
       <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="3">
         <v>14500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>109300</v>
+        <v>71700</v>
       </c>
       <c r="E66" s="3">
         <v>109300</v>
       </c>
       <c r="F66" s="3">
+        <v>109300</v>
+      </c>
+      <c r="G66" s="3">
         <v>108500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>108900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>125900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>110900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>119400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>127800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>107800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>383900</v>
+      </c>
+      <c r="E72" s="3">
         <v>500300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>706100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>610200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>586700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>494100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>449300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>539800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-698600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-321600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-194800</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1782100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1944400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2135800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2079100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2234000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2156100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2006900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2082700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1982900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2296500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2424000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>210900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>349000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>286400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>203200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>136600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-38000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>122000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E89" s="3">
         <v>225600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>339100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>302200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>140500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>119000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>85500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>34500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,8 +3514,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3329,8 +3550,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E94" s="3">
         <v>31300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>55100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>39300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>43400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,43 +3682,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-126700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-406100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-247700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-267800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-120900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-89300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-83500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-51800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-63300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-44900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-164600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-407000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-247700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-269000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-137900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-74300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-93500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-61800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-54900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-150800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>145900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>AWCMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,114 @@
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,8 +809,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +850,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,8 +949,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -970,8 +990,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
         <v>6800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-5000</v>
       </c>
       <c r="G18" s="3">
         <v>-5000</v>
       </c>
       <c r="H18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,46 +1146,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E20" s="3">
         <v>9700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>214000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>354000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>291400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>209100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>143700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-21900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>127700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-46200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1189,31 +1226,34 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1227,55 +1267,61 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>210900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>349000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>286400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>203200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>136600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-38000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>122100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-53200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1295,16 +1341,19 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E26" s="3">
         <v>3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>210900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>349000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>286400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>203200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>136600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-38000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>122000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>210900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>349000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>286400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>203200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>136600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-38000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-33700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>122000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-214000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-354000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-291400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-209100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-143700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>21900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-127700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E33" s="3">
         <v>3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>210900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>349000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>286400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>203200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>136600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-38000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>122000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E35" s="3">
         <v>3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>210900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>349000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>286400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>203200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>136600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-38000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>122000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1882,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E41" s="3">
         <v>15200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>183800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,8 +1962,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1889,29 +1982,32 @@
       <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1948,122 +2044,134 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>3300</v>
       </c>
       <c r="M45" s="3">
         <v>3300</v>
       </c>
       <c r="N45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E46" s="3">
         <v>17000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>184900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1673800</v>
+      </c>
+      <c r="E47" s="3">
         <v>1836800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2018800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2060200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2148400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2301000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2257000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2106000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2176200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2098000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2370900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2514500</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2073,11 +2181,11 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2100,8 +2208,11 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2138,8 +2249,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,8 +2331,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2252,8 +2372,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1708000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1853800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2053700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2245100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2187600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2342900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2282000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2117800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2202100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2110700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2404300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2543200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,70 +2490,74 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1300</v>
       </c>
       <c r="H57" s="3">
         <v>1300</v>
       </c>
       <c r="I57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>87700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>88000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
         <v>15000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2433,130 +2567,142 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>108800</v>
       </c>
       <c r="F60" s="3">
         <v>108800</v>
       </c>
       <c r="G60" s="3">
+        <v>108800</v>
+      </c>
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E61" s="3">
         <v>70000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>92400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>98400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>97700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>92400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>102800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>110500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>95800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
@@ -2565,31 +2711,34 @@
         <v>500</v>
       </c>
       <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
         <v>14500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E66" s="3">
         <v>71700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>109300</v>
       </c>
       <c r="F66" s="3">
         <v>109300</v>
       </c>
       <c r="G66" s="3">
+        <v>109300</v>
+      </c>
+      <c r="H66" s="3">
         <v>108500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>108900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>125900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>110900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>119400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>127800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>107800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>358200</v>
+      </c>
+      <c r="E72" s="3">
         <v>383900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>500300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>706100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>610200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>586700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>494100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>449300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>539800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-698600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-321600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-194800</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1596400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1782100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1944400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2135800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2079100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2234000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2156100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2006900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2082700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1982900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2296500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2424000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E81" s="3">
         <v>3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>210900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>349000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>286400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>203200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>136600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-38000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>122000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E89" s="3">
         <v>139000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>225600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>339100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>302200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>140500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>119000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>85500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>34500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,8 +3735,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3553,8 +3774,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E94" s="3">
         <v>7900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>31300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>55100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>39300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>43400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +3916,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-126700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-406100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-247700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-267800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-120900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-89300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-83500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-51800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-63300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-44900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-164600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-407000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-247700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-269000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-137900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-74300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-93500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-61800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-43300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-54900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-150800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>145900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>AWCMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,121 @@
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,8 +819,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +863,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,8 +969,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -993,8 +1013,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-5000</v>
       </c>
       <c r="H18" s="3">
         <v>-5000</v>
       </c>
       <c r="I18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,49 +1180,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>96300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>214000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>354000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>291400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>209100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>143700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-21900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>127700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-46200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1229,8 +1266,11 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1255,8 +1295,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1270,61 +1310,67 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E23" s="3">
         <v>90500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>210900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>349000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>286400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>203200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>136600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-38000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>122100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-53200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1344,16 +1390,19 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E26" s="3">
         <v>90500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>210900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>349000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>286400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>203200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>136600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>122000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E27" s="3">
         <v>90500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>210900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>349000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>286400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>203200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>136600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-38000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>122000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>-96300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-214000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-354000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-291400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-209100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-143700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>21900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-127700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E33" s="3">
         <v>90500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>210900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>349000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>286400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>203200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>136600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-38000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>122000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E35" s="3">
         <v>90500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>210900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>349000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>286400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>203200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>136600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-38000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>122000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E41" s="3">
         <v>32600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>183800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1965,25 +2055,28 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1992,22 +2085,25 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2047,131 +2143,143 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>3300</v>
       </c>
       <c r="N45" s="3">
         <v>3300</v>
       </c>
       <c r="O45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E46" s="3">
         <v>34200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>184900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>39100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1784500</v>
+      </c>
+      <c r="E47" s="3">
         <v>1673800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1836800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2018800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2060200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2148400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2301000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2257000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2106000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2176200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2098000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2370900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2514500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2184,11 +2292,11 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2211,8 +2319,11 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2252,8 +2363,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,8 +2451,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2375,8 +2495,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1796700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1708000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1853800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2053700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2245100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2187600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2342900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2282000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2117800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2202100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2110700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2404300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2543200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,76 +2621,80 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1300</v>
       </c>
       <c r="I57" s="3">
         <v>1300</v>
       </c>
       <c r="J57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>87700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>88000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>15000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2570,142 +2704,154 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>108800</v>
       </c>
       <c r="G60" s="3">
         <v>108800</v>
       </c>
       <c r="H60" s="3">
+        <v>108800</v>
+      </c>
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E61" s="3">
         <v>110000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>70000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>92400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>98400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>97700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>92400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>102800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>110500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>95800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>500</v>
       </c>
       <c r="F62" s="3">
         <v>500</v>
@@ -2714,31 +2860,34 @@
         <v>500</v>
       </c>
       <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
         <v>14500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E66" s="3">
         <v>111600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>71700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>109300</v>
       </c>
       <c r="G66" s="3">
         <v>109300</v>
       </c>
       <c r="H66" s="3">
+        <v>109300</v>
+      </c>
+      <c r="I66" s="3">
         <v>108500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>108900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>125900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>110900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>119400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>127800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>107800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>358200</v>
+        <v>-971300</v>
       </c>
       <c r="E72" s="3">
-        <v>383900</v>
+        <v>-1085300</v>
       </c>
       <c r="F72" s="3">
-        <v>500300</v>
+        <v>-900000</v>
       </c>
       <c r="G72" s="3">
-        <v>706100</v>
+        <v>-737100</v>
       </c>
       <c r="H72" s="3">
-        <v>610200</v>
+        <v>-545900</v>
       </c>
       <c r="I72" s="3">
-        <v>586700</v>
+        <v>-601800</v>
       </c>
       <c r="J72" s="3">
+        <v>-448000</v>
+      </c>
+      <c r="K72" s="3">
         <v>494100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>449300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>539800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-698600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-321600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-194800</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1734600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1596400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1782100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1944400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2135800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2079100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2234000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2156100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2006900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2082700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1982900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2296500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2424000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E81" s="3">
         <v>90500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>210900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>349000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>286400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>203200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>136600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-38000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>122000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E89" s="3">
         <v>96100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>139000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>225600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>339100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>302200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>140500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>119000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>85500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>34500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,8 +3956,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3777,8 +3998,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>31300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>55100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>39300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>43400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,49 +4150,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-103700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-126700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-406100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-247700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-267800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-120900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-89300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-83500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-51800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-63300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-44900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-106800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-64600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-164600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-407000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-247700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-269000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-137900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-74300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-93500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-61800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-43300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-54900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E102" s="3">
         <v>17400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-150800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>145900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>AWCMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,43 +747,46 @@
         <v>5</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,8 +829,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +876,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,8 +989,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1016,8 +1036,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,52 +1101,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E17" s="3">
         <v>6700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,43 +1158,46 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-5000</v>
       </c>
       <c r="I18" s="3">
         <v>-5000</v>
       </c>
       <c r="J18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,8 +1214,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,43 +1224,46 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>63300</v>
+      </c>
+      <c r="F20" s="3">
         <v>96300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>214000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>354000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>291400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>209100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>143700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-21900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>127700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-46200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1269,8 +1306,11 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1298,8 +1338,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1313,67 +1353,73 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E23" s="3">
         <v>56600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>90500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>210900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>349000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>286400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>203200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>136600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>122100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-53200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1393,16 +1439,19 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E26" s="3">
         <v>56100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>90500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>210900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>349000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>286400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>203200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>136600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-33700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>122000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E27" s="3">
         <v>56100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>90500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>210900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>349000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>286400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>203200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>136600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-33700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>122000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,8 +1776,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,87 +1788,93 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-96300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-214000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-354000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-291400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-209100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-143700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>21900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-127700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E33" s="3">
         <v>56100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>90500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>210900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>349000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>286400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>203200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>136600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-38000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-33700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>122000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E35" s="3">
         <v>56100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>90500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>210900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>349000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>286400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>203200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>136600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-38000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-33700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>122000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E41" s="3">
         <v>10400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>183800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,8 +2148,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2088,22 +2181,25 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2146,145 +2242,157 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>3300</v>
       </c>
       <c r="O45" s="3">
         <v>3300</v>
       </c>
       <c r="P45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E46" s="3">
         <v>12200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>184900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>39100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>25800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1747400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1784500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1673800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1836800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2018800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2060200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2148400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2301000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2257000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2106000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2176200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2098000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2370900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2514500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>2500</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -2295,11 +2403,11 @@
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2322,8 +2430,11 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2366,8 +2477,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,8 +2571,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2498,8 +2618,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1765500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1796700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1708000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1853800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2053700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2245100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2187600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2342900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2282000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2117800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2202100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2110700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2404300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2543200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,52 +2752,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1300</v>
       </c>
       <c r="J57" s="3">
         <v>1300</v>
       </c>
       <c r="K57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2677,27 +2811,27 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>87700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>88000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>15000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2707,55 +2841,61 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2763,98 +2903,104 @@
         <v>1400</v>
       </c>
       <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>108800</v>
       </c>
       <c r="H60" s="3">
         <v>108800</v>
       </c>
       <c r="I60" s="3">
+        <v>108800</v>
+      </c>
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E61" s="3">
         <v>60000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>110000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>70000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>92400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>98400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>97700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>92400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>102800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>110500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>95800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>500</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
@@ -2863,31 +3009,34 @@
         <v>500</v>
       </c>
       <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
         <v>14500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E66" s="3">
         <v>62100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>111600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>109300</v>
       </c>
       <c r="H66" s="3">
         <v>109300</v>
       </c>
       <c r="I66" s="3">
+        <v>109300</v>
+      </c>
+      <c r="J66" s="3">
         <v>108500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>108900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>125900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>119400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>127800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>107800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-964100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-971300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1085300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-900000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-737100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-545900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-601800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-448000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>494100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>449300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>539800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-698600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-321600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-194800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1741400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1734600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1596400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1782100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1944400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2135800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2079100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2234000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2156100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2006900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2082700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1982900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2296500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2424000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E81" s="3">
         <v>56100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>90500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>210900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>349000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>286400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>203200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>136600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-38000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-33700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>122000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +3829,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E89" s="3">
         <v>58300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>96100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>139000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>225600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>339100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>302200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>140500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>119000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>85500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>34500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,8 +4177,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4001,8 +4222,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E94" s="3">
         <v>25100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>31300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>55100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>39300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>43400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4384,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-56800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-103700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-126700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-406100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-247700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-267800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-120900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-89300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-83500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-51800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-63300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-44900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-106800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-64600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-164600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-407000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-247700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-269000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-137900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-74300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-93500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-61800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-43300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-54900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-150800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>145900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>AWCMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,43 +754,46 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,8 +839,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,8 +889,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,8 +1009,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1059,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,55 +1128,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
         <v>6900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,46 +1188,49 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-5000</v>
       </c>
       <c r="J18" s="3">
         <v>-5000</v>
       </c>
       <c r="K18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="L18" s="3">
         <v>-5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,8 +1248,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,46 +1258,49 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>80500</v>
+      </c>
+      <c r="F20" s="3">
         <v>63300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>96300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>214000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>354000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>291400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>209100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>143700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-21900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>127700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-46200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1309,8 +1346,11 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1341,8 +1381,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
@@ -1356,55 +1396,61 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E23" s="3">
         <v>73600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>56600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>90500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>210900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>349000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>286400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>203200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>136600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-38000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-33800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>122100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-53200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,17 +1458,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1442,16 +1488,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E26" s="3">
         <v>73600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>90500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>210900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>349000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>286400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>203200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>136600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-38000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-33700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>122000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E27" s="3">
         <v>73600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>56100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>90500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>210900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>349000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>286400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>203200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>136600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-38000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-33700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>122000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,8 +1846,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,93 +1858,99 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-63300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-96300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-214000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-354000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-291400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-209100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-143700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>21900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-127700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E33" s="3">
         <v>73600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>56100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>90500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>210900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>349000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>286400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>203200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>136600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-38000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-33700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>122000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E35" s="3">
         <v>73600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>56100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>90500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>210900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>349000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>286400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>203200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>136600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-38000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-33700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>122000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2143,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E41" s="3">
         <v>14300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>183800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2151,8 +2241,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2184,22 +2277,25 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2245,158 +2341,170 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>3300</v>
       </c>
       <c r="P45" s="3">
         <v>3300</v>
       </c>
       <c r="Q45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R45" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E46" s="3">
         <v>15600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>184900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>39100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>25800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1741800</v>
+      </c>
+      <c r="E47" s="3">
         <v>1747400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1784500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1673800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1836800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2018800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2060200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2148400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2301000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2257000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2106000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2176200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2098000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2370900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2514500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2406,11 +2514,11 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2433,8 +2541,11 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2480,8 +2591,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,8 +2691,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2621,8 +2741,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1754700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1765500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1796700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1708000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1853800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2053700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2245100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2187600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2342900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2282000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2117800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2202100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2110700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2404300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2543200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,55 +2883,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1300</v>
       </c>
       <c r="K57" s="3">
         <v>1300</v>
       </c>
       <c r="L57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2814,27 +2948,27 @@
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>87700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>88000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>15000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2844,166 +2978,178 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>1400</v>
       </c>
       <c r="F60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>108800</v>
       </c>
       <c r="I60" s="3">
         <v>108800</v>
       </c>
       <c r="J60" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E61" s="3">
         <v>21900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>60000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>110000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>70000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>92400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>98400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>97700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>92400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>102800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>110500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>95800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
@@ -3012,31 +3158,34 @@
         <v>500</v>
       </c>
       <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3">
         <v>14500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E66" s="3">
         <v>24100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>111600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>109300</v>
       </c>
       <c r="I66" s="3">
         <v>109300</v>
       </c>
       <c r="J66" s="3">
+        <v>109300</v>
+      </c>
+      <c r="K66" s="3">
         <v>108500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>108900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>125900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>110900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>119400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>127800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>107800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1019900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-964100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-971300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1085300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-900000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-737100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-545900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-601800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-448000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>494100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>449300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>539800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-698600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-321600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-194800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1685600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1741400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1734600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1596400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1782100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1944400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2135800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2079100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2234000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2156100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2006900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2082700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1982900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2296500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2424000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E81" s="3">
         <v>73600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>56100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>90500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>210900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>349000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>286400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>203200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>136600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-38000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-33700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>122000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4028,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E89" s="3">
         <v>113200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>58300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>96100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>139000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>225600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>339100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>302200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>140500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>119000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>85500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>34500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,8 +4398,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4225,8 +4446,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E94" s="3">
         <v>15600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>25100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>31300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>55100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>39300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>43400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,55 +4618,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-84100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-56800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-103700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-126700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-406100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-247700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-267800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-120900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-89300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-83500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-51800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-63300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-124900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-106800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-64600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-164600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-407000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-247700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-269000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-137900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-74300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-93500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-61800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-43300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-54900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>3900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-150800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>145900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>AWCMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -757,43 +761,46 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -842,8 +849,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,8 +902,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,8 +1029,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,8 +1082,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E17" s="3">
         <v>6400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-6100</v>
       </c>
       <c r="E18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-5000</v>
       </c>
       <c r="K18" s="3">
         <v>-5000</v>
       </c>
       <c r="L18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="M18" s="3">
         <v>-5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,58 +1282,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>174000</v>
       </c>
       <c r="E20" s="3">
+        <v>120400</v>
+      </c>
+      <c r="F20" s="3">
         <v>80500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>63300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>96300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>214000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>354000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>291400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>209100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>143700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-21900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>127700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-46200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1349,8 +1386,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1384,8 +1424,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
@@ -1399,58 +1439,64 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E23" s="3">
         <v>114000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>73600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>56600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>90500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>210900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>349000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>286400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>203200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>136600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-38000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-33800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>122100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-53200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1461,17 +1507,17 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1491,16 +1537,19 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E26" s="3">
         <v>114000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>73600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>90500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>210900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>349000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>286400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>203200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>136600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-38000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>122000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E27" s="3">
         <v>114000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>73600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>56100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>90500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>210900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>349000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>286400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>203200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>136600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-38000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>122000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1749,8 +1810,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>-174000</v>
       </c>
       <c r="E32" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-80500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-63300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-96300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-214000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-354000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-291400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-209100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-143700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>21900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>27600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-127700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E33" s="3">
         <v>114000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>73600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>56100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>90500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>210900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>349000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>286400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>203200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>136600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-38000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>122000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E35" s="3">
         <v>114000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>73600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>56100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>90500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>210900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>349000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>286400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>203200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>136600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-38000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>122000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>183800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2244,8 +2334,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2280,22 +2373,25 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2344,170 +2440,182 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>3300</v>
       </c>
       <c r="Q45" s="3">
         <v>3300</v>
       </c>
       <c r="R45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S45" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E46" s="3">
         <v>10600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>184900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1736000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1741800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1747400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1784500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1673800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1836800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2018800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2060200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2148400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2301000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2257000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2106000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2176200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2098000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2370900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2514500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2517,11 +2625,11 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2544,8 +2652,11 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2594,8 +2705,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,8 +2811,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2744,8 +2864,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1758500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1754700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1765500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1796700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1708000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1853800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2053700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2245100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2187600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2342900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2282000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2117800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2202100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2110700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2404300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2543200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,58 +3014,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1300</v>
       </c>
       <c r="L57" s="3">
         <v>1300</v>
       </c>
       <c r="M57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2951,27 +3085,27 @@
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>87700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>88000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>15000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2981,11 +3115,14 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2993,149 +3130,158 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1400</v>
       </c>
       <c r="F60" s="3">
         <v>1400</v>
       </c>
       <c r="G60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>108800</v>
       </c>
       <c r="J60" s="3">
         <v>108800</v>
       </c>
       <c r="K60" s="3">
+        <v>108800</v>
+      </c>
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
         <v>66700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>60000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>110000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>70000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>92400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>98400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>97700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>92400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>102800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>110500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>95800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3143,16 +3289,16 @@
         <v>900</v>
       </c>
       <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
@@ -3161,31 +3307,34 @@
         <v>500</v>
       </c>
       <c r="K62" s="3">
+        <v>500</v>
+      </c>
+      <c r="L62" s="3">
         <v>14500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
         <v>69100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>111600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>109300</v>
       </c>
       <c r="J66" s="3">
         <v>109300</v>
       </c>
       <c r="K66" s="3">
+        <v>109300</v>
+      </c>
+      <c r="L66" s="3">
         <v>108500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>108900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>125900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>110900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>119400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>127800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>107800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-951400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1019900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-964100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-971300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1085300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-900000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-737100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-545900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-601800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-448000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>494100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>449300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>539800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-698600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-321600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-194800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1754500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1685600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1741400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1734600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1596400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1782100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1944400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2135800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2079100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2234000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2156100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2006900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2082700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1982900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2296500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2424000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E81" s="3">
         <v>114000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>73600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>56100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>90500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>210900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>349000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>286400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>203200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>136600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-38000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>122000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,8 +4227,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4079,8 +4278,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E89" s="3">
         <v>62000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>113200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>58300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>96100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>139000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>225600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>339100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>302200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>140500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>119000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>85500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>34500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,8 +4619,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4449,8 +4670,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>25100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>31300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>55100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>39300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>43400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-98700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-84100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-56800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-103700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-126700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-406100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-247700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-267800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-120900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-89300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-83500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-51800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-63300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-44900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-146200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-53700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-124900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-106800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-64600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-164600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-407000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-247700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-269000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-137900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-74300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-93500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-61800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-54900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-150800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>145900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>AWCMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,102 @@
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -764,43 +768,46 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,8 +859,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,8 +915,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,8 +1049,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1085,8 +1105,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E17" s="3">
         <v>6200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-5000</v>
       </c>
       <c r="L18" s="3">
         <v>-5000</v>
       </c>
       <c r="M18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="N18" s="3">
         <v>-5900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-16100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,61 +1316,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="E20" s="3">
         <v>174000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>120400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>80500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>63300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>96300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>214000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>354000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>291400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>209100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>143700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-21900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-27600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>127700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-46200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1353,11 +1390,11 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+      <c r="H21" s="3">
+        <v>56600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>90500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1389,8 +1426,11 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,8 +1467,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -1442,61 +1482,67 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E23" s="3">
         <v>167900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>114000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>73600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>56600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>90500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>210900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>349000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>286400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>203200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>136600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-38000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-33800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>122100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-53200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1510,17 +1556,17 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1540,16 +1586,19 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E26" s="3">
         <v>167900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>114000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>73600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>56100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>90500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>210900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>349000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>286400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>203200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>136600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-38000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-33700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>122000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E27" s="3">
         <v>167900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>114000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>73600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>56100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>90500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>210900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>349000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>286400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>203200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>136600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-38000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-33700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>122000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1813,8 +1874,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-174000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-120400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-80500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-63300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-96300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-214000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-354000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-291400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-209100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-143700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>21900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>27600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-127700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E33" s="3">
         <v>167900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>114000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>73600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>56100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>90500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>210900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>349000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>286400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>203200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>136600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-38000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-33700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>122000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E35" s="3">
         <v>167900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>114000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>73600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>56100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>90500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>210900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>349000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>286400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>203200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>136600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-38000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-33700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>122000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,61 +2317,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>19300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>183800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>40000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2337,8 +2427,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2376,22 +2469,25 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2443,182 +2539,194 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>3300</v>
       </c>
       <c r="R45" s="3">
         <v>3300</v>
       </c>
       <c r="S45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T45" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E46" s="3">
         <v>20400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>184900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>39100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1656000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1736000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1741800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1747400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1784500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1673800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1836800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2018800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2060200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2148400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2301000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2257000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2106000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2176200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2098000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2370900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2514500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2628,11 +2736,11 @@
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2655,8 +2763,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2708,8 +2819,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,8 +2931,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2867,8 +2987,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1662700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1758500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1754700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1765500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1796700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1708000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1853800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2053700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2245100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2187600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2342900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2282000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2117800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2202100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2110700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2404300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2543200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,8 +3145,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3024,52 +3155,55 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1300</v>
       </c>
       <c r="M57" s="3">
         <v>1300</v>
       </c>
       <c r="N57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3088,27 +3222,27 @@
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>87700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>88000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>15000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3118,190 +3252,202 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1400</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>108800</v>
       </c>
       <c r="K60" s="3">
         <v>108800</v>
       </c>
       <c r="L60" s="3">
+        <v>108800</v>
+      </c>
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>66700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>60000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>110000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>70000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>92400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>98400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>97700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>92400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>102800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>110500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>95800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>900</v>
       </c>
       <c r="F62" s="3">
+        <v>900</v>
+      </c>
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>500</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
@@ -3310,31 +3456,34 @@
         <v>500</v>
       </c>
       <c r="L62" s="3">
+        <v>500</v>
+      </c>
+      <c r="M62" s="3">
         <v>14500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>113300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>69100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>111600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>109300</v>
       </c>
       <c r="K66" s="3">
         <v>109300</v>
       </c>
       <c r="L66" s="3">
+        <v>109300</v>
+      </c>
+      <c r="M66" s="3">
         <v>108500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>108900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>125900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>110900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>119400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>127800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>107800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1156500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-951400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1019900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-964100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-971300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1085300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-900000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-737100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-545900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-601800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-448000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>494100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>449300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>539800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-698600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-321600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-194800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1549400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1754500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1685600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1741400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1734600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1596400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1782100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1944400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2135800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2079100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2234000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2156100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2006900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2082700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1982900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2296500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2424000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E81" s="3">
         <v>167900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>114000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>73600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>56100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>90500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>210900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>349000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>286400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>203200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>136600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-38000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-33700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>122000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,8 +4426,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4281,8 +4480,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E89" s="3">
         <v>220400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>62000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>113200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>58300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>96100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>139000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>225600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>339100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>302200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>140500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>119000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>85500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>34500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,8 +4840,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4673,8 +4894,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>15600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>25100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>31300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>55100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>39300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>43400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,61 +5086,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-81200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-98700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-84100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-56800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-103700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-126700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-406100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-247700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-267800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-120900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-89300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-83500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-63300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-44900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5308,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-146200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-53700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-124900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-106800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-64600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-164600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-407000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-247700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-269000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-137900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-74300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-93500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-61800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-43300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-54900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E102" s="3">
         <v>10200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-150800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>145900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-20700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>AWCMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,156 @@
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>600</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>175800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>122200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>82400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>66100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>98600</v>
+      </c>
+      <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8" s="3">
+        <v>700</v>
+      </c>
+      <c r="O8" s="3">
+        <v>500</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="Q8" s="3">
+        <v>400</v>
+      </c>
+      <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>500</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>200</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -862,8 +869,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +928,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,8 +1069,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1128,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
         <v>6300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-6100</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>-6400</v>
+        <v>169600</v>
       </c>
       <c r="G18" s="3">
-        <v>-6900</v>
+        <v>115800</v>
       </c>
       <c r="H18" s="3">
-        <v>-6700</v>
+        <v>75500</v>
       </c>
       <c r="I18" s="3">
-        <v>-5800</v>
+        <v>59400</v>
       </c>
       <c r="J18" s="3">
+        <v>92700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-5000</v>
       </c>
       <c r="M18" s="3">
         <v>-5000</v>
       </c>
       <c r="N18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="O18" s="3">
         <v>-5900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,64 +1350,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-58200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>174000</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>120400</v>
+        <v>-1700</v>
       </c>
       <c r="G20" s="3">
-        <v>80500</v>
+        <v>-1800</v>
       </c>
       <c r="H20" s="3">
-        <v>63300</v>
+        <v>-1900</v>
       </c>
       <c r="I20" s="3">
-        <v>96300</v>
+        <v>-2800</v>
       </c>
       <c r="J20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K20" s="3">
         <v>9700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>214000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>354000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>291400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>209100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>143700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-27600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>127700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-46200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1390,15 +1427,15 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>56600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>90500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1429,8 +1466,11 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1470,8 +1510,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
@@ -1485,64 +1525,70 @@
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-63900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>167900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>114000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>73600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>56600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>90500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>210900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>349000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>286400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>203200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>136600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-33800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>122100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-53200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1559,17 +1605,17 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1589,16 +1635,19 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-63900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>167900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>114000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>73600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>56100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>90500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>210900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>349000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>286400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>203200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>136600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-33700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>122000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-63900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>167900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>114000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>73600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>56100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>90500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>210900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>349000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>286400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>203200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>136600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-33700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>122000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1877,8 +1938,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>58200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-174000</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F32" s="3">
-        <v>-120400</v>
+        <v>1700</v>
       </c>
       <c r="G32" s="3">
-        <v>-80500</v>
+        <v>1800</v>
       </c>
       <c r="H32" s="3">
-        <v>-63300</v>
+        <v>1900</v>
       </c>
       <c r="I32" s="3">
-        <v>-96300</v>
+        <v>2800</v>
       </c>
       <c r="J32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-214000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-354000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-291400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-209100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-143700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>21900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>27600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-127700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-63900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>167900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>114000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>73600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>56100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>90500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>210900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>349000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>286400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>203200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>136600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-33700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>122000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-63900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>167900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>114000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>73600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>56100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>90500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>210900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>349000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>286400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>203200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>136600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-33700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>122000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,64 +2404,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>183800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>40000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2430,8 +2520,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2472,22 +2565,25 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2542,194 +2638,206 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
-      </c>
-      <c r="R45" s="3">
-        <v>3300</v>
       </c>
       <c r="S45" s="3">
         <v>3300</v>
       </c>
       <c r="T45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U45" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E46" s="3">
         <v>4800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>184900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>25800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1744700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1656000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1736000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1741800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1747400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1784500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1673800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1836800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2018800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2060200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2148400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2301000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2257000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2106000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2176200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2098000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2370900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2514500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2739,11 +2847,11 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2766,8 +2874,11 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2822,8 +2933,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,8 +3051,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2990,8 +3110,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1751200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1662700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1758500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1754700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1765500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1796700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1708000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1853800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2053700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2245100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2187600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2342900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2282000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2117800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2202100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2110700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2404300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2543200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,106 +3276,110 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1300</v>
       </c>
       <c r="N57" s="3">
         <v>1300</v>
       </c>
       <c r="O57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>87700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>88000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>15000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3255,67 +3389,73 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1200</v>
       </c>
       <c r="F59" s="3">
         <v>1200</v>
       </c>
       <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
       </c>
       <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3323,134 +3463,140 @@
         <v>1300</v>
       </c>
       <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1400</v>
       </c>
       <c r="H60" s="3">
         <v>1400</v>
       </c>
       <c r="I60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>108800</v>
       </c>
       <c r="L60" s="3">
         <v>108800</v>
       </c>
       <c r="M60" s="3">
+        <v>108800</v>
+      </c>
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>225100</v>
+      </c>
+      <c r="E61" s="3">
         <v>111300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>66700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>60000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>110000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>70000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>92400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>98400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>97700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>92400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>102800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>110500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>95800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>111500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>900</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
       </c>
       <c r="G62" s="3">
+        <v>900</v>
+      </c>
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
@@ -3459,31 +3605,34 @@
         <v>500</v>
       </c>
       <c r="M62" s="3">
+        <v>500</v>
+      </c>
+      <c r="N62" s="3">
         <v>14500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="E66" s="3">
         <v>113300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>111600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>71700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>109300</v>
       </c>
       <c r="L66" s="3">
         <v>109300</v>
       </c>
       <c r="M66" s="3">
+        <v>109300</v>
+      </c>
+      <c r="N66" s="3">
         <v>108500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>108900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>125900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>110900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>119400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>127800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>107800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1182300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1156500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-951400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1019900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-964100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-971300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1085300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-900000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-737100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-545900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-601800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-448000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>494100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>449300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>539800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-698600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-321600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-194800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1549400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1754500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1685600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1741400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1734600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1596400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1782100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1944400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2135800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2079100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2234000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2156100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2006900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2082700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1982900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2296500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2424000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-63900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>167900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>114000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>73600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>56100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>90500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>210900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>349000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>286400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>203200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>136600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-33700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>122000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,8 +4625,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4483,8 +4682,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E89" s="3">
         <v>126600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>220400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>113200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>58300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>96100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>139000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>225600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>339100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>302200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>140500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>119000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>85500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>34500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>17000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,8 +5061,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4897,8 +5118,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-122400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-129000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>15600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>25100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>31300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>55100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>39300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>43400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,64 +5320,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-121900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-81200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-98700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-84100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-56800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-103700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-126700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-406100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-247700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-267800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-120900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-89300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-83500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-51800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-63300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-44900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,172 +5554,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-146200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-53700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-124900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-106800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-64600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-164600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-407000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-247700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-269000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-137900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-74300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-93500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-61800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-43300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-54900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-22200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-150800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>145900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-20700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19900</v>
       </c>
     </row>
